--- a/SCFrameworkImpl/Results/Current Results/ChangeSkewness_0_80/UniformTasks_GENERAL.xlsx
+++ b/SCFrameworkImpl/Results/Current Results/ChangeSkewness_0_80/UniformTasks_GENERAL.xlsx
@@ -626,8 +626,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="424972872"/>
-        <c:axId val="424975616"/>
+        <c:axId val="265762808"/>
+        <c:axId val="265763592"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -753,7 +753,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$H$1</c15:sqref>
@@ -782,7 +782,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$A$2:$A$10</c15:sqref>
@@ -824,7 +824,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$H$2:$H$10</c15:sqref>
@@ -870,7 +870,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="424972872"/>
+        <c:axId val="265762808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -896,12 +896,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600" b="1"/>
-                  <a:t>Tasks'</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
-                  <a:t> Spatial Skewness (%)</a:t>
+                  <a:t>Spatial Skewness of Tasks (%)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1600" b="1"/>
               </a:p>
@@ -974,7 +970,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="424975616"/>
+        <c:crossAx val="265763592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -982,7 +978,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="424975616"/>
+        <c:axId val="265763592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1091,7 +1087,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="424972872"/>
+        <c:crossAx val="265762808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
